--- a/macroVarActuals.xlsx
+++ b/macroVarActuals.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arun/Desktop/TimeSeriesModels/TimeSeriesModels/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7530A7-E8B2-3544-9355-3CDA52BA26CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>HPI</t>
   </si>
@@ -30,15 +36,18 @@
   <si>
     <t>GS10</t>
   </si>
+  <si>
+    <t>Date</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,12 +99,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -104,6 +114,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -150,7 +168,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -182,9 +200,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -216,6 +252,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -391,14 +445,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -415,15 +477,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
         <v>29677</v>
       </c>
       <c r="B2">
         <v>107.44</v>
       </c>
       <c r="C2">
-        <v>3162.532</v>
+        <v>3162.5320000000002</v>
       </c>
       <c r="D2">
         <v>15.4</v>
@@ -435,15 +497,15 @@
         <v>13.68</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <v>29768</v>
       </c>
       <c r="B3">
         <v>109.23</v>
       </c>
       <c r="C3">
-        <v>3260.609</v>
+        <v>3260.6089999999999</v>
       </c>
       <c r="D3">
         <v>16.63428571428571</v>
@@ -455,18 +517,18 @@
         <v>14.28</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>29860</v>
       </c>
       <c r="B4">
         <v>109.15</v>
       </c>
       <c r="C4">
-        <v>3280.818</v>
+        <v>3280.8180000000002</v>
       </c>
       <c r="D4">
-        <v>18.29142857142857</v>
+        <v>18.291428571428568</v>
       </c>
       <c r="E4">
         <v>7.9</v>
@@ -475,18 +537,18 @@
         <v>15.15</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>29952</v>
       </c>
       <c r="B5">
         <v>110.95</v>
       </c>
       <c r="C5">
-        <v>3274.302</v>
+        <v>3274.3020000000001</v>
       </c>
       <c r="D5">
-        <v>17.0725</v>
+        <v>17.072500000000002</v>
       </c>
       <c r="E5">
         <v>8.6</v>
@@ -495,55 +557,55 @@
         <v>14.59</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>30042</v>
       </c>
       <c r="B6">
         <v>111.9</v>
       </c>
       <c r="C6">
-        <v>3331.972</v>
+        <v>3331.9720000000002</v>
       </c>
       <c r="D6">
-        <v>16.96285714285714</v>
+        <v>16.962857142857139</v>
       </c>
       <c r="E6">
-        <v>9.300000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="F6">
         <v>13.87</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
         <v>30133</v>
       </c>
       <c r="B7">
         <v>110.84</v>
       </c>
       <c r="C7">
-        <v>3366.322</v>
+        <v>3366.3220000000001</v>
       </c>
       <c r="D7">
-        <v>16.85</v>
+        <v>16.850000000000001</v>
       </c>
       <c r="E7">
-        <v>9.800000000000001</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="F7">
         <v>13.95</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>30225</v>
       </c>
       <c r="B8">
         <v>112.22</v>
       </c>
       <c r="C8">
-        <v>3402.561</v>
+        <v>3402.5610000000001</v>
       </c>
       <c r="D8">
         <v>15.13</v>
@@ -555,8 +617,8 @@
         <v>10.91</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>30317</v>
       </c>
       <c r="B9">
@@ -575,8 +637,8 @@
         <v>10.46</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
         <v>30407</v>
       </c>
       <c r="B10">
@@ -589,21 +651,21 @@
         <v>12.82</v>
       </c>
       <c r="E10">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="F10">
         <v>10.4</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
         <v>30498</v>
       </c>
       <c r="B11">
         <v>116.4</v>
       </c>
       <c r="C11">
-        <v>3689.179</v>
+        <v>3689.1790000000001</v>
       </c>
       <c r="D11">
         <v>13.08</v>
@@ -615,35 +677,35 @@
         <v>11.38</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
         <v>30590</v>
       </c>
       <c r="B12">
         <v>117.06</v>
       </c>
       <c r="C12">
-        <v>3794.706</v>
+        <v>3794.7060000000001</v>
       </c>
       <c r="D12">
         <v>13.64142857142857</v>
       </c>
       <c r="E12">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="F12">
         <v>11.54</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
         <v>30682</v>
       </c>
       <c r="B13">
         <v>118.82</v>
       </c>
       <c r="C13">
-        <v>3908.054</v>
+        <v>3908.0540000000001</v>
       </c>
       <c r="D13">
         <v>13.43</v>
@@ -655,15 +717,15 @@
         <v>11.67</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
         <v>30773</v>
       </c>
       <c r="B14">
         <v>120.37</v>
       </c>
       <c r="C14">
-        <v>4009.601</v>
+        <v>4009.6010000000001</v>
       </c>
       <c r="D14">
         <v>13.57285714285714</v>
@@ -675,8 +737,8 @@
         <v>12.63</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
         <v>30864</v>
       </c>
       <c r="B15">
@@ -695,15 +757,15 @@
         <v>13.36</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
         <v>30956</v>
       </c>
       <c r="B16">
         <v>122.47</v>
       </c>
       <c r="C16">
-        <v>4148.551</v>
+        <v>4148.5510000000004</v>
       </c>
       <c r="D16">
         <v>14.22571428571429</v>
@@ -715,18 +777,18 @@
         <v>12.16</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
         <v>31048</v>
       </c>
       <c r="B17">
         <v>124.21</v>
       </c>
       <c r="C17">
-        <v>4230.168</v>
+        <v>4230.1679999999997</v>
       </c>
       <c r="D17">
-        <v>13.11714285714286</v>
+        <v>13.117142857142859</v>
       </c>
       <c r="E17">
         <v>7.3</v>
@@ -735,15 +797,15 @@
         <v>11.38</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
         <v>31138</v>
       </c>
       <c r="B18">
         <v>126.09</v>
       </c>
       <c r="C18">
-        <v>4294.887</v>
+        <v>4294.8869999999997</v>
       </c>
       <c r="D18">
         <v>13.28142857142857</v>
@@ -755,15 +817,15 @@
         <v>11.43</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
         <v>31229</v>
       </c>
       <c r="B19">
         <v>128.06</v>
       </c>
       <c r="C19">
-        <v>4386.773</v>
+        <v>4386.7730000000001</v>
       </c>
       <c r="D19">
         <v>12.14142857142857</v>
@@ -775,15 +837,15 @@
         <v>10.31</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
         <v>31321</v>
       </c>
       <c r="B20">
         <v>129.47</v>
       </c>
       <c r="C20">
-        <v>4444.094</v>
+        <v>4444.0940000000001</v>
       </c>
       <c r="D20">
         <v>12.17</v>
@@ -795,15 +857,15 @@
         <v>10.24</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
         <v>31413</v>
       </c>
       <c r="B21">
         <v>131.97</v>
       </c>
       <c r="C21">
-        <v>4507.894</v>
+        <v>4507.8940000000002</v>
       </c>
       <c r="D21">
         <v>10.89</v>
@@ -815,8 +877,8 @@
         <v>9.19</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
         <v>31503</v>
       </c>
       <c r="B22">
@@ -826,7 +888,7 @@
         <v>4545.34</v>
       </c>
       <c r="D22">
-        <v>10.03714285714286</v>
+        <v>10.037142857142859</v>
       </c>
       <c r="E22">
         <v>7.1</v>
@@ -835,15 +897,15 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
         <v>31594</v>
       </c>
       <c r="B23">
         <v>136.76</v>
       </c>
       <c r="C23">
-        <v>4607.669</v>
+        <v>4607.6689999999999</v>
       </c>
       <c r="D23">
         <v>10.61428571428571</v>
@@ -855,18 +917,18 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
         <v>31686</v>
       </c>
       <c r="B24">
         <v>138.87</v>
       </c>
       <c r="C24">
-        <v>4657.627</v>
+        <v>4657.6270000000004</v>
       </c>
       <c r="D24">
-        <v>10.08571428571429</v>
+        <v>10.085714285714291</v>
       </c>
       <c r="E24">
         <v>7</v>
@@ -875,18 +937,18 @@
         <v>7.43</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
         <v>31778</v>
       </c>
       <c r="B25">
         <v>141.62</v>
       </c>
       <c r="C25">
-        <v>4722.156</v>
+        <v>4722.1559999999999</v>
       </c>
       <c r="D25">
-        <v>9.358571428571429</v>
+        <v>9.3585714285714285</v>
       </c>
       <c r="E25">
         <v>6.6</v>
@@ -895,8 +957,8 @@
         <v>7.08</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
         <v>31868</v>
       </c>
       <c r="B26">
@@ -915,35 +977,35 @@
         <v>8.02</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
         <v>31959</v>
       </c>
       <c r="B27">
         <v>145.44</v>
       </c>
       <c r="C27">
-        <v>4884.555</v>
+        <v>4884.5550000000003</v>
       </c>
       <c r="D27">
-        <v>10.35714285714286</v>
+        <v>10.357142857142859</v>
       </c>
       <c r="E27">
         <v>6.1</v>
       </c>
       <c r="F27">
-        <v>8.449999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="2">
+        <v>8.4499999999999993</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
         <v>32051</v>
       </c>
       <c r="B28">
-        <v>146.36</v>
+        <v>146.36000000000001</v>
       </c>
       <c r="C28">
-        <v>5007.994</v>
+        <v>5007.9939999999997</v>
       </c>
       <c r="D28">
         <v>11.15714285714286</v>
@@ -955,15 +1017,15 @@
         <v>9.52</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
         <v>32143</v>
       </c>
       <c r="B29">
         <v>148.66</v>
       </c>
       <c r="C29">
-        <v>5073.372</v>
+        <v>5073.3720000000003</v>
       </c>
       <c r="D29">
         <v>10.59625</v>
@@ -975,28 +1037,28 @@
         <v>8.67</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
         <v>32234</v>
       </c>
       <c r="B30">
         <v>151.62</v>
       </c>
       <c r="C30">
-        <v>5190.036</v>
+        <v>5190.0360000000001</v>
       </c>
       <c r="D30">
-        <v>10.05</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="E30">
         <v>5.4</v>
       </c>
       <c r="F30">
-        <v>8.720000000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="2">
+        <v>8.7200000000000006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
         <v>32325</v>
       </c>
       <c r="B31">
@@ -1015,8 +1077,8 @@
         <v>9.06</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
         <v>32417</v>
       </c>
       <c r="B32">
@@ -1026,24 +1088,24 @@
         <v>5399.509</v>
       </c>
       <c r="D32">
-        <v>10.41428571428571</v>
+        <v>10.414285714285709</v>
       </c>
       <c r="E32">
         <v>5.4</v>
       </c>
       <c r="F32">
-        <v>8.800000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="2">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
         <v>32509</v>
       </c>
       <c r="B33">
-        <v>156.39</v>
+        <v>156.38999999999999</v>
       </c>
       <c r="C33">
-        <v>5511.253</v>
+        <v>5511.2529999999997</v>
       </c>
       <c r="D33">
         <v>10.77857142857143</v>
@@ -1055,15 +1117,15 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
         <v>32599</v>
       </c>
       <c r="B34">
-        <v>158.55</v>
+        <v>158.55000000000001</v>
       </c>
       <c r="C34">
-        <v>5612.463</v>
+        <v>5612.4629999999997</v>
       </c>
       <c r="D34">
         <v>11.17285714285714</v>
@@ -1075,15 +1137,15 @@
         <v>9.18</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
         <v>32690</v>
       </c>
       <c r="B35">
         <v>161.91</v>
       </c>
       <c r="C35">
-        <v>5695.365</v>
+        <v>5695.3649999999998</v>
       </c>
       <c r="D35">
         <v>10.06428571428571</v>
@@ -1095,18 +1157,18 @@
         <v>8.02</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
         <v>32782</v>
       </c>
       <c r="B36">
         <v>163.26</v>
       </c>
       <c r="C36">
-        <v>5747.237</v>
+        <v>5747.2370000000001</v>
       </c>
       <c r="D36">
-        <v>10.14285714285714</v>
+        <v>10.142857142857141</v>
       </c>
       <c r="E36">
         <v>5.3</v>
@@ -1115,8 +1177,8 @@
         <v>8.01</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
         <v>32874</v>
       </c>
       <c r="B37">
@@ -1126,24 +1188,24 @@
         <v>5872.701</v>
       </c>
       <c r="D37">
-        <v>9.801428571428572</v>
+        <v>9.8014285714285716</v>
       </c>
       <c r="E37">
         <v>5.4</v>
       </c>
       <c r="F37">
-        <v>8.210000000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="2">
+        <v>8.2100000000000009</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
         <v>32964</v>
       </c>
       <c r="B38">
         <v>164.85</v>
       </c>
       <c r="C38">
-        <v>5960.028</v>
+        <v>5960.0280000000002</v>
       </c>
       <c r="D38">
         <v>10.23142857142857</v>
@@ -1152,11 +1214,11 @@
         <v>5.4</v>
       </c>
       <c r="F38">
-        <v>8.789999999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="2">
+        <v>8.7899999999999991</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
         <v>33055</v>
       </c>
       <c r="B39">
@@ -1166,24 +1228,24 @@
         <v>6015.116</v>
       </c>
       <c r="D39">
-        <v>10.12428571428572</v>
+        <v>10.124285714285721</v>
       </c>
       <c r="E39">
         <v>5.5</v>
       </c>
       <c r="F39">
-        <v>8.470000000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="2">
+        <v>8.4700000000000006</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
         <v>33147</v>
       </c>
       <c r="B40">
         <v>165.19</v>
       </c>
       <c r="C40">
-        <v>6004.733</v>
+        <v>6004.7330000000002</v>
       </c>
       <c r="D40">
         <v>10.16</v>
@@ -1192,21 +1254,21 @@
         <v>5.9</v>
       </c>
       <c r="F40">
-        <v>8.720000000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="2">
+        <v>8.7200000000000006</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
         <v>33239</v>
       </c>
       <c r="B41">
         <v>166.56</v>
       </c>
       <c r="C41">
-        <v>6035.178</v>
+        <v>6035.1779999999999</v>
       </c>
       <c r="D41">
-        <v>9.611428571428572</v>
+        <v>9.6114285714285721</v>
       </c>
       <c r="E41">
         <v>6.4</v>
@@ -1215,38 +1277,38 @@
         <v>8.09</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
         <v>33329</v>
       </c>
       <c r="B42">
         <v>167.69</v>
       </c>
       <c r="C42">
-        <v>6126.862</v>
+        <v>6126.8620000000001</v>
       </c>
       <c r="D42">
-        <v>9.507142857142856</v>
+        <v>9.5071428571428562</v>
       </c>
       <c r="E42">
         <v>6.7</v>
       </c>
       <c r="F42">
-        <v>8.039999999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="2">
+        <v>8.0399999999999991</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
         <v>33420</v>
       </c>
       <c r="B43">
         <v>167.98</v>
       </c>
       <c r="C43">
-        <v>6205.937</v>
+        <v>6205.9369999999999</v>
       </c>
       <c r="D43">
-        <v>9.648571428571428</v>
+        <v>9.6485714285714277</v>
       </c>
       <c r="E43">
         <v>6.8</v>
@@ -1255,8 +1317,8 @@
         <v>8.27</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
         <v>33512</v>
       </c>
       <c r="B44">
@@ -1266,7 +1328,7 @@
         <v>6264.54</v>
       </c>
       <c r="D44">
-        <v>8.891428571428571</v>
+        <v>8.8914285714285715</v>
       </c>
       <c r="E44">
         <v>7</v>
@@ -1275,18 +1337,18 @@
         <v>7.53</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
         <v>33604</v>
       </c>
       <c r="B45">
         <v>171.66</v>
       </c>
       <c r="C45">
-        <v>6363.102</v>
+        <v>6363.1019999999999</v>
       </c>
       <c r="D45">
-        <v>8.271428571428572</v>
+        <v>8.2714285714285722</v>
       </c>
       <c r="E45">
         <v>7.3</v>
@@ -1295,18 +1357,18 @@
         <v>7.03</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
         <v>33695</v>
       </c>
       <c r="B46">
         <v>171.63</v>
       </c>
       <c r="C46">
-        <v>6470.763</v>
+        <v>6470.7629999999999</v>
       </c>
       <c r="D46">
-        <v>8.965714285714286</v>
+        <v>8.9657142857142862</v>
       </c>
       <c r="E46">
         <v>7.4</v>
@@ -1315,15 +1377,15 @@
         <v>7.48</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
         <v>33786</v>
       </c>
       <c r="B47">
         <v>173.59</v>
       </c>
       <c r="C47">
-        <v>6566.641</v>
+        <v>6566.6409999999996</v>
       </c>
       <c r="D47">
         <v>8.33</v>
@@ -1335,18 +1397,18 @@
         <v>6.84</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
         <v>33878</v>
       </c>
       <c r="B48">
         <v>174.47</v>
       </c>
       <c r="C48">
-        <v>6680.803</v>
+        <v>6680.8029999999999</v>
       </c>
       <c r="D48">
-        <v>7.94125</v>
+        <v>7.9412500000000001</v>
       </c>
       <c r="E48">
         <v>7.3</v>
@@ -1355,18 +1417,18 @@
         <v>6.59</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
         <v>33970</v>
       </c>
       <c r="B49">
         <v>174.53</v>
       </c>
       <c r="C49">
-        <v>6729.459</v>
+        <v>6729.4589999999998</v>
       </c>
       <c r="D49">
-        <v>8.131250000000001</v>
+        <v>8.1312500000000014</v>
       </c>
       <c r="E49">
         <v>7.3</v>
@@ -1375,18 +1437,18 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
         <v>34060</v>
       </c>
       <c r="B50">
         <v>176.19</v>
       </c>
       <c r="C50">
-        <v>6808.939</v>
+        <v>6808.9390000000003</v>
       </c>
       <c r="D50">
-        <v>7.525714285714286</v>
+        <v>7.5257142857142858</v>
       </c>
       <c r="E50">
         <v>7.1</v>
@@ -1395,8 +1457,8 @@
         <v>5.97</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
         <v>34151</v>
       </c>
       <c r="B51">
@@ -1406,7 +1468,7 @@
         <v>6882.098</v>
       </c>
       <c r="D51">
-        <v>7.245714285714286</v>
+        <v>7.2457142857142864</v>
       </c>
       <c r="E51">
         <v>6.9</v>
@@ -1415,15 +1477,15 @@
         <v>5.81</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
         <v>34243</v>
       </c>
       <c r="B52">
         <v>179.08</v>
       </c>
       <c r="C52">
-        <v>7013.738</v>
+        <v>7013.7380000000003</v>
       </c>
       <c r="D52">
         <v>6.89</v>
@@ -1435,8 +1497,8 @@
         <v>5.33</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
         <v>34335</v>
       </c>
       <c r="B53">
@@ -1446,7 +1508,7 @@
         <v>7115.652</v>
       </c>
       <c r="D53">
-        <v>7.144285714285714</v>
+        <v>7.1442857142857141</v>
       </c>
       <c r="E53">
         <v>6.6</v>
@@ -1455,18 +1517,18 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
         <v>34425</v>
       </c>
       <c r="B54">
         <v>181.3</v>
       </c>
       <c r="C54">
-        <v>7246.931</v>
+        <v>7246.9309999999996</v>
       </c>
       <c r="D54">
-        <v>8.039999999999999</v>
+        <v>8.0399999999999991</v>
       </c>
       <c r="E54">
         <v>6.4</v>
@@ -1475,15 +1537,15 @@
         <v>6.97</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
         <v>34516</v>
       </c>
       <c r="B55">
         <v>182.05</v>
       </c>
       <c r="C55">
-        <v>7331.075</v>
+        <v>7331.0749999999998</v>
       </c>
       <c r="D55">
         <v>8.57</v>
@@ -1495,15 +1557,15 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
         <v>34608</v>
       </c>
       <c r="B56">
         <v>181.9</v>
       </c>
       <c r="C56">
-        <v>7455.288</v>
+        <v>7455.2879999999996</v>
       </c>
       <c r="D56">
         <v>8.83</v>
@@ -1515,18 +1577,18 @@
         <v>7.74</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
         <v>34700</v>
       </c>
       <c r="B57">
         <v>182.85</v>
       </c>
       <c r="C57">
-        <v>7522.289</v>
+        <v>7522.2889999999998</v>
       </c>
       <c r="D57">
-        <v>9.191428571428572</v>
+        <v>9.1914285714285722</v>
       </c>
       <c r="E57">
         <v>5.6</v>
@@ -1535,18 +1597,18 @@
         <v>7.78</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
         <v>34790</v>
       </c>
       <c r="B58">
         <v>185.85</v>
       </c>
       <c r="C58">
-        <v>7580.997</v>
+        <v>7580.9970000000003</v>
       </c>
       <c r="D58">
-        <v>8.384285714285715</v>
+        <v>8.3842857142857152</v>
       </c>
       <c r="E58">
         <v>5.8</v>
@@ -1555,8 +1617,8 @@
         <v>7.06</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
         <v>34881</v>
       </c>
       <c r="B59">
@@ -1566,7 +1628,7 @@
         <v>7683.125</v>
       </c>
       <c r="D59">
-        <v>7.544285714285714</v>
+        <v>7.5442857142857136</v>
       </c>
       <c r="E59">
         <v>5.7</v>
@@ -1575,18 +1637,18 @@
         <v>6.28</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
         <v>34973</v>
       </c>
       <c r="B60">
         <v>190.18</v>
       </c>
       <c r="C60">
-        <v>7772.586</v>
+        <v>7772.5860000000002</v>
       </c>
       <c r="D60">
-        <v>7.605714285714286</v>
+        <v>7.6057142857142859</v>
       </c>
       <c r="E60">
         <v>5.5</v>
@@ -1595,18 +1657,18 @@
         <v>6.04</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
         <v>35065</v>
       </c>
       <c r="B61">
         <v>192.33</v>
       </c>
       <c r="C61">
-        <v>7868.468</v>
+        <v>7868.4679999999998</v>
       </c>
       <c r="D61">
-        <v>7.071428571428571</v>
+        <v>7.0714285714285712</v>
       </c>
       <c r="E61">
         <v>5.6</v>
@@ -1615,8 +1677,8 @@
         <v>5.65</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
         <v>35156</v>
       </c>
       <c r="B62">
@@ -1626,7 +1688,7 @@
         <v>8032.84</v>
       </c>
       <c r="D62">
-        <v>7.728571428571429</v>
+        <v>7.7285714285714286</v>
       </c>
       <c r="E62">
         <v>5.6</v>
@@ -1635,15 +1697,15 @@
         <v>6.51</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
         <v>35247</v>
       </c>
       <c r="B63">
         <v>193.53</v>
       </c>
       <c r="C63">
-        <v>8131.408</v>
+        <v>8131.4080000000004</v>
       </c>
       <c r="D63">
         <v>8.225714285714286</v>
@@ -1655,18 +1717,18 @@
         <v>6.87</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
         <v>35339</v>
       </c>
       <c r="B64">
         <v>195.03</v>
       </c>
       <c r="C64">
-        <v>8259.771000000001</v>
+        <v>8259.7710000000006</v>
       </c>
       <c r="D64">
-        <v>8.102857142857143</v>
+        <v>8.1028571428571432</v>
       </c>
       <c r="E64">
         <v>5.2</v>
@@ -1675,15 +1737,15 @@
         <v>6.53</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
         <v>35431</v>
       </c>
       <c r="B65">
         <v>196.66</v>
       </c>
       <c r="C65">
-        <v>8362.655000000001</v>
+        <v>8362.6550000000007</v>
       </c>
       <c r="D65">
         <v>7.661428571428571</v>
@@ -1695,58 +1757,58 @@
         <v>6.58</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
         <v>35521</v>
       </c>
       <c r="B66">
         <v>198.31</v>
       </c>
       <c r="C66">
-        <v>8518.825000000001</v>
+        <v>8518.8250000000007</v>
       </c>
       <c r="D66">
         <v>8.09</v>
       </c>
       <c r="E66">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F66">
         <v>6.89</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
         <v>35612</v>
       </c>
       <c r="B67">
         <v>201.03</v>
       </c>
       <c r="C67">
-        <v>8662.823</v>
+        <v>8662.8230000000003</v>
       </c>
       <c r="D67">
-        <v>7.602857142857143</v>
+        <v>7.6028571428571432</v>
       </c>
       <c r="E67">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F67">
         <v>6.22</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
         <v>35704</v>
       </c>
       <c r="B68">
         <v>203.64</v>
       </c>
       <c r="C68">
-        <v>8765.906999999999</v>
+        <v>8765.9069999999992</v>
       </c>
       <c r="D68">
-        <v>7.301428571428572</v>
+        <v>7.3014285714285716</v>
       </c>
       <c r="E68">
         <v>4.7</v>
@@ -1755,8 +1817,8 @@
         <v>6.03</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
         <v>35796</v>
       </c>
       <c r="B69">
@@ -1766,24 +1828,24 @@
         <v>8866.48</v>
       </c>
       <c r="D69">
-        <v>7.024285714285715</v>
+        <v>7.0242857142857149</v>
       </c>
       <c r="E69">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F69">
         <v>5.54</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
         <v>35886</v>
       </c>
       <c r="B70">
         <v>208.54</v>
       </c>
       <c r="C70">
-        <v>8969.699000000001</v>
+        <v>8969.6990000000005</v>
       </c>
       <c r="D70">
         <v>7.13</v>
@@ -1795,18 +1857,18 @@
         <v>5.64</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
         <v>35977</v>
       </c>
       <c r="B71">
         <v>211.45</v>
       </c>
       <c r="C71">
-        <v>9121.097</v>
+        <v>9121.0969999999998</v>
       </c>
       <c r="D71">
-        <v>6.974285714285714</v>
+        <v>6.9742857142857142</v>
       </c>
       <c r="E71">
         <v>4.5</v>
@@ -1815,8 +1877,8 @@
         <v>5.46</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
         <v>36069</v>
       </c>
       <c r="B72">
@@ -1835,18 +1897,18 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
         <v>36161</v>
       </c>
       <c r="B73">
         <v>216.2</v>
       </c>
       <c r="C73">
-        <v>9417.263999999999</v>
+        <v>9417.2639999999992</v>
       </c>
       <c r="D73">
-        <v>6.825</v>
+        <v>6.8250000000000002</v>
       </c>
       <c r="E73">
         <v>4.3</v>
@@ -1855,8 +1917,8 @@
         <v>4.72</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
         <v>36251</v>
       </c>
       <c r="B74">
@@ -1875,18 +1937,18 @@
         <v>5.18</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
         <v>36342</v>
       </c>
       <c r="B75">
         <v>222.2</v>
       </c>
       <c r="C75">
-        <v>9681.856</v>
+        <v>9681.8559999999998</v>
       </c>
       <c r="D75">
-        <v>7.698571428571428</v>
+        <v>7.6985714285714284</v>
       </c>
       <c r="E75">
         <v>4.3</v>
@@ -1895,28 +1957,28 @@
         <v>5.79</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
         <v>36434</v>
       </c>
       <c r="B76">
         <v>224.49</v>
       </c>
       <c r="C76">
-        <v>9899.378000000001</v>
+        <v>9899.3780000000006</v>
       </c>
       <c r="D76">
         <v>7.7</v>
       </c>
       <c r="E76">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F76">
         <v>6.11</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
         <v>36526</v>
       </c>
       <c r="B77">
@@ -1926,7 +1988,7 @@
         <v>10002.857</v>
       </c>
       <c r="D77">
-        <v>8.072857142857144</v>
+        <v>8.0728571428571438</v>
       </c>
       <c r="E77">
         <v>4</v>
@@ -1935,8 +1997,8 @@
         <v>6.66</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
         <v>36617</v>
       </c>
       <c r="B78">
@@ -1955,18 +2017,18 @@
         <v>5.99</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
         <v>36708</v>
       </c>
       <c r="B79">
         <v>236.73</v>
       </c>
       <c r="C79">
-        <v>10319.825</v>
+        <v>10319.825000000001</v>
       </c>
       <c r="D79">
-        <v>8.211428571428572</v>
+        <v>8.2114285714285717</v>
       </c>
       <c r="E79">
         <v>4</v>
@@ -1975,8 +2037,8 @@
         <v>6.05</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
         <v>36800</v>
       </c>
       <c r="B80">
@@ -1986,7 +2048,7 @@
         <v>10439.025</v>
       </c>
       <c r="D80">
-        <v>7.865714285714286</v>
+        <v>7.8657142857142857</v>
       </c>
       <c r="E80">
         <v>3.9</v>
@@ -1995,18 +2057,18 @@
         <v>5.74</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
         <v>36892</v>
       </c>
       <c r="B81">
         <v>246.31</v>
       </c>
       <c r="C81">
-        <v>10472.879</v>
+        <v>10472.879000000001</v>
       </c>
       <c r="D81">
-        <v>7.104285714285714</v>
+        <v>7.1042857142857141</v>
       </c>
       <c r="E81">
         <v>4.2</v>
@@ -2015,8 +2077,8 @@
         <v>5.16</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
         <v>36982</v>
       </c>
       <c r="B82">
@@ -2026,17 +2088,17 @@
         <v>10597.822</v>
       </c>
       <c r="D82">
-        <v>6.938571428571429</v>
+        <v>6.9385714285714286</v>
       </c>
       <c r="E82">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F82">
         <v>5.14</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
         <v>37073</v>
       </c>
       <c r="B83">
@@ -2046,27 +2108,27 @@
         <v>10596.294</v>
       </c>
       <c r="D83">
-        <v>7.132857142857143</v>
+        <v>7.1328571428571426</v>
       </c>
       <c r="E83">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F83">
         <v>5.24</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
         <v>37165</v>
       </c>
       <c r="B84">
-        <v>257.47</v>
+        <v>257.47000000000003</v>
       </c>
       <c r="C84">
         <v>10660.294</v>
       </c>
       <c r="D84">
-        <v>6.685714285714285</v>
+        <v>6.6857142857142851</v>
       </c>
       <c r="E84">
         <v>5.3</v>
@@ -2075,18 +2137,18 @@
         <v>4.57</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
         <v>37257</v>
       </c>
       <c r="B85">
         <v>261.17</v>
       </c>
       <c r="C85">
-        <v>10788.952</v>
+        <v>10788.951999999999</v>
       </c>
       <c r="D85">
-        <v>7.148571428571429</v>
+        <v>7.1485714285714286</v>
       </c>
       <c r="E85">
         <v>5.7</v>
@@ -2095,8 +2157,8 @@
         <v>5.04</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
         <v>37347</v>
       </c>
       <c r="B86">
@@ -2106,7 +2168,7 @@
         <v>10893.207</v>
       </c>
       <c r="D86">
-        <v>7.158571428571428</v>
+        <v>7.1585714285714284</v>
       </c>
       <c r="E86">
         <v>5.9</v>
@@ -2115,38 +2177,38 @@
         <v>5.21</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="3">
         <v>37438</v>
       </c>
       <c r="B87">
         <v>270.88</v>
       </c>
       <c r="C87">
-        <v>10992.051</v>
+        <v>10992.050999999999</v>
       </c>
       <c r="D87">
-        <v>6.558571428571429</v>
+        <v>6.5585714285714287</v>
       </c>
       <c r="E87">
         <v>5.8</v>
       </c>
       <c r="F87">
-        <v>4.65</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="2">
+        <v>4.6500000000000004</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="3">
         <v>37530</v>
       </c>
       <c r="B88">
-        <v>274.72</v>
+        <v>274.72000000000003</v>
       </c>
       <c r="C88">
         <v>11071.463</v>
       </c>
       <c r="D88">
-        <v>6.001428571428572</v>
+        <v>6.0014285714285718</v>
       </c>
       <c r="E88">
         <v>5.7</v>
@@ -2155,8 +2217,8 @@
         <v>3.94</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="3">
         <v>37622</v>
       </c>
       <c r="B89">
@@ -2166,7 +2228,7 @@
         <v>11183.507</v>
       </c>
       <c r="D89">
-        <v>5.872857142857143</v>
+        <v>5.8728571428571428</v>
       </c>
       <c r="E89">
         <v>5.8</v>
@@ -2175,8 +2237,8 @@
         <v>4.05</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
         <v>37712</v>
       </c>
       <c r="B90">
@@ -2186,7 +2248,7 @@
         <v>11312.875</v>
       </c>
       <c r="D90">
-        <v>5.841428571428572</v>
+        <v>5.8414285714285716</v>
       </c>
       <c r="E90">
         <v>6</v>
@@ -2195,18 +2257,18 @@
         <v>3.96</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
         <v>37803</v>
       </c>
       <c r="B91">
         <v>285.77</v>
       </c>
       <c r="C91">
-        <v>11567.326</v>
+        <v>11567.325999999999</v>
       </c>
       <c r="D91">
-        <v>5.331428571428572</v>
+        <v>5.3314285714285718</v>
       </c>
       <c r="E91">
         <v>6.2</v>
@@ -2215,8 +2277,8 @@
         <v>3.98</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
         <v>37895</v>
       </c>
       <c r="B92">
@@ -2235,8 +2297,8 @@
         <v>4.29</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
-      <c r="A93" s="2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
         <v>37987</v>
       </c>
       <c r="B93">
@@ -2252,18 +2314,18 @@
         <v>5.7</v>
       </c>
       <c r="F93">
-        <v>4.15</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="2">
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
         <v>38078</v>
       </c>
       <c r="B94">
         <v>305.68</v>
       </c>
       <c r="C94">
-        <v>12108.987</v>
+        <v>12108.986999999999</v>
       </c>
       <c r="D94">
         <v>5.52</v>
@@ -2272,11 +2334,11 @@
         <v>5.6</v>
       </c>
       <c r="F94">
-        <v>4.35</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="2">
+        <v>4.3499999999999996</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
         <v>38169</v>
       </c>
       <c r="B95">
@@ -2295,15 +2357,15 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
-      <c r="A96" s="2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
         <v>38261</v>
       </c>
       <c r="B96">
         <v>324.14</v>
       </c>
       <c r="C96">
-        <v>12522.425</v>
+        <v>12522.424999999999</v>
       </c>
       <c r="D96">
         <v>5.734285714285714</v>
@@ -2312,11 +2374,11 @@
         <v>5.5</v>
       </c>
       <c r="F96">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
         <v>38353</v>
       </c>
       <c r="B97">
@@ -2326,7 +2388,7 @@
         <v>12761.337</v>
       </c>
       <c r="D97">
-        <v>5.795</v>
+        <v>5.7949999999999999</v>
       </c>
       <c r="E97">
         <v>5.3</v>
@@ -2335,15 +2397,15 @@
         <v>4.22</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
         <v>38443</v>
       </c>
       <c r="B98">
         <v>342.2</v>
       </c>
       <c r="C98">
-        <v>12910.022</v>
+        <v>12910.022000000001</v>
       </c>
       <c r="D98">
         <v>6.024285714285714</v>
@@ -2355,8 +2417,8 @@
         <v>4.34</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
         <v>38534</v>
       </c>
       <c r="B99">
@@ -2366,7 +2428,7 @@
         <v>13142.873</v>
       </c>
       <c r="D99">
-        <v>5.542857142857143</v>
+        <v>5.5428571428571427</v>
       </c>
       <c r="E99">
         <v>5</v>
@@ -2375,18 +2437,18 @@
         <v>4.18</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
         <v>38626</v>
       </c>
       <c r="B100">
         <v>360.52</v>
       </c>
       <c r="C100">
-        <v>13332.316</v>
+        <v>13332.316000000001</v>
       </c>
       <c r="D100">
-        <v>5.930000000000001</v>
+        <v>5.9300000000000006</v>
       </c>
       <c r="E100">
         <v>5</v>
@@ -2395,18 +2457,18 @@
         <v>4.46</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
         <v>38718</v>
       </c>
       <c r="B101">
         <v>366.25</v>
       </c>
       <c r="C101">
-        <v>13603.933</v>
+        <v>13603.933000000001</v>
       </c>
       <c r="D101">
-        <v>6.215714285714285</v>
+        <v>6.2157142857142853</v>
       </c>
       <c r="E101">
         <v>4.7</v>
@@ -2415,8 +2477,8 @@
         <v>4.42</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
-      <c r="A102" s="2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
         <v>38808</v>
       </c>
       <c r="B102">
@@ -2426,7 +2488,7 @@
         <v>13749.806</v>
       </c>
       <c r="D102">
-        <v>6.372857142857143</v>
+        <v>6.3728571428571428</v>
       </c>
       <c r="E102">
         <v>4.7</v>
@@ -2435,18 +2497,18 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
         <v>38899</v>
       </c>
       <c r="B103">
         <v>373.04</v>
       </c>
       <c r="C103">
-        <v>13867.469</v>
+        <v>13867.468999999999</v>
       </c>
       <c r="D103">
-        <v>6.782857142857143</v>
+        <v>6.7828571428571429</v>
       </c>
       <c r="E103">
         <v>4.7</v>
@@ -2455,28 +2517,28 @@
         <v>5.09</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
-      <c r="A104" s="2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
         <v>38991</v>
       </c>
       <c r="B104">
         <v>376.85</v>
       </c>
       <c r="C104">
-        <v>14037.228</v>
+        <v>14037.227999999999</v>
       </c>
       <c r="D104">
-        <v>6.305714285714285</v>
+        <v>6.3057142857142852</v>
       </c>
       <c r="E104">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F104">
-        <v>4.73</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105" s="2">
+        <v>4.7300000000000004</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" s="3">
         <v>39083</v>
       </c>
       <c r="B105">
@@ -2489,41 +2551,41 @@
         <v>6.18</v>
       </c>
       <c r="E105">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F105">
         <v>4.76</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
-      <c r="A106" s="2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" s="3">
         <v>39173</v>
       </c>
       <c r="B106">
         <v>377.97</v>
       </c>
       <c r="C106">
-        <v>14382.363</v>
+        <v>14382.362999999999</v>
       </c>
       <c r="D106">
-        <v>6.164285714285715</v>
+        <v>6.1642857142857146</v>
       </c>
       <c r="E106">
         <v>4.5</v>
       </c>
       <c r="F106">
-        <v>4.69</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="2">
+        <v>4.6900000000000004</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" s="3">
         <v>39264</v>
       </c>
       <c r="B107">
         <v>373.74</v>
       </c>
       <c r="C107">
-        <v>14535.003</v>
+        <v>14535.003000000001</v>
       </c>
       <c r="D107">
         <v>6.652857142857143</v>
@@ -2535,8 +2597,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
-      <c r="A108" s="2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="3">
         <v>39356</v>
       </c>
       <c r="B108">
@@ -2546,7 +2608,7 @@
         <v>14681.501</v>
       </c>
       <c r="D108">
-        <v>6.391428571428571</v>
+        <v>6.3914285714285706</v>
       </c>
       <c r="E108">
         <v>4.7</v>
@@ -2555,18 +2617,18 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
-      <c r="A109" s="2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" s="3">
         <v>39448</v>
       </c>
       <c r="B109">
         <v>369.86</v>
       </c>
       <c r="C109">
-        <v>14651.039</v>
+        <v>14651.039000000001</v>
       </c>
       <c r="D109">
-        <v>6.098571428571429</v>
+        <v>6.0985714285714288</v>
       </c>
       <c r="E109">
         <v>5</v>
@@ -2575,15 +2637,15 @@
         <v>3.74</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
-      <c r="A110" s="2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" s="3">
         <v>39539</v>
       </c>
       <c r="B110">
         <v>360.53</v>
       </c>
       <c r="C110">
-        <v>14805.611</v>
+        <v>14805.611000000001</v>
       </c>
       <c r="D110">
         <v>5.871428571428571</v>
@@ -2595,8 +2657,8 @@
         <v>3.68</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
-      <c r="A111" s="2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" s="3">
         <v>39630</v>
       </c>
       <c r="B111">
@@ -2606,7 +2668,7 @@
         <v>14835.187</v>
       </c>
       <c r="D111">
-        <v>6.378571428571428</v>
+        <v>6.3785714285714281</v>
       </c>
       <c r="E111">
         <v>5.8</v>
@@ -2615,8 +2677,8 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
-      <c r="A112" s="2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" s="3">
         <v>39722</v>
       </c>
       <c r="B112">
@@ -2626,7 +2688,7 @@
         <v>14559.543</v>
       </c>
       <c r="D112">
-        <v>6.098571428571428</v>
+        <v>6.0985714285714279</v>
       </c>
       <c r="E112">
         <v>6.5</v>
@@ -2635,8 +2697,8 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
-      <c r="A113" s="2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" s="3">
         <v>39814</v>
       </c>
       <c r="B113">
@@ -2646,7 +2708,7 @@
         <v>14394.547</v>
       </c>
       <c r="D113">
-        <v>5.088749999999999</v>
+        <v>5.0887499999999992</v>
       </c>
       <c r="E113">
         <v>7.8</v>
@@ -2655,8 +2717,8 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
-      <c r="A114" s="2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="3">
         <v>39904</v>
       </c>
       <c r="B114">
@@ -2675,8 +2737,8 @@
         <v>2.93</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
-      <c r="A115" s="2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="3">
         <v>39995</v>
       </c>
       <c r="B115">
@@ -2686,7 +2748,7 @@
         <v>14420.312</v>
       </c>
       <c r="D115">
-        <v>5.334285714285715</v>
+        <v>5.3342857142857154</v>
       </c>
       <c r="E115">
         <v>9.5</v>
@@ -2695,18 +2757,18 @@
         <v>3.56</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
-      <c r="A116" s="2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="3">
         <v>40087</v>
       </c>
       <c r="B116">
         <v>327.87</v>
       </c>
       <c r="C116">
-        <v>14628.021</v>
+        <v>14628.021000000001</v>
       </c>
       <c r="D116">
-        <v>4.94</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="E116">
         <v>10</v>
@@ -2715,8 +2777,8 @@
         <v>3.39</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
-      <c r="A117" s="2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="3">
         <v>40179</v>
       </c>
       <c r="B117">
@@ -2726,21 +2788,21 @@
         <v>14721.35</v>
       </c>
       <c r="D117">
-        <v>5.132857142857143</v>
+        <v>5.1328571428571426</v>
       </c>
       <c r="E117">
-        <v>9.800000000000001</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="F117">
         <v>3.73</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
-      <c r="A118" s="2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" s="3">
         <v>40269</v>
       </c>
       <c r="B118">
-        <v>321.04</v>
+        <v>321.04000000000002</v>
       </c>
       <c r="C118">
         <v>14926.098</v>
@@ -2755,15 +2817,15 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
-      <c r="A119" s="2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="3">
         <v>40360</v>
       </c>
       <c r="B119">
         <v>324.08</v>
       </c>
       <c r="C119">
-        <v>15079.917</v>
+        <v>15079.916999999999</v>
       </c>
       <c r="D119">
         <v>4.58</v>
@@ -2775,18 +2837,18 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
-      <c r="A120" s="2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" s="3">
         <v>40452</v>
       </c>
       <c r="B120">
         <v>321.73</v>
       </c>
       <c r="C120">
-        <v>15240.843</v>
+        <v>15240.843000000001</v>
       </c>
       <c r="D120">
-        <v>4.312857142857143</v>
+        <v>4.3128571428571432</v>
       </c>
       <c r="E120">
         <v>9.4</v>
@@ -2795,8 +2857,8 @@
         <v>2.54</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
-      <c r="A121" s="2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="3">
         <v>40544</v>
       </c>
       <c r="B121">
@@ -2806,7 +2868,7 @@
         <v>15285.828</v>
       </c>
       <c r="D121">
-        <v>4.834285714285715</v>
+        <v>4.8342857142857154</v>
       </c>
       <c r="E121">
         <v>9.1</v>
@@ -2815,18 +2877,18 @@
         <v>3.39</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
-      <c r="A122" s="2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="3">
         <v>40634</v>
       </c>
       <c r="B122">
-        <v>307.4</v>
+        <v>307.39999999999998</v>
       </c>
       <c r="C122">
         <v>15496.189</v>
       </c>
       <c r="D122">
-        <v>4.861428571428572</v>
+        <v>4.8614285714285721</v>
       </c>
       <c r="E122">
         <v>9.1</v>
@@ -2835,8 +2897,8 @@
         <v>3.46</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
-      <c r="A123" s="2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" s="3">
         <v>40725</v>
       </c>
       <c r="B123">
@@ -2846,7 +2908,7 @@
         <v>15591.85</v>
       </c>
       <c r="D123">
-        <v>4.522857142857142</v>
+        <v>4.5228571428571422</v>
       </c>
       <c r="E123">
         <v>9</v>
@@ -2855,8 +2917,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
-      <c r="A124" s="2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" s="3">
         <v>40817</v>
       </c>
       <c r="B124">
@@ -2869,34 +2931,34 @@
         <v>3.99</v>
       </c>
       <c r="E124">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="F124">
         <v>2.15</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
-      <c r="A125" s="2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" s="3">
         <v>40909</v>
       </c>
       <c r="B125">
-        <v>307.78</v>
+        <v>307.77999999999997</v>
       </c>
       <c r="C125">
         <v>16019.758</v>
       </c>
       <c r="D125">
-        <v>3.932857142857143</v>
+        <v>3.9328571428571428</v>
       </c>
       <c r="E125">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F125">
         <v>1.97</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
-      <c r="A126" s="2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" s="3">
         <v>41000</v>
       </c>
       <c r="B126">
@@ -2906,47 +2968,47 @@
         <v>16152.257</v>
       </c>
       <c r="D126">
-        <v>3.985714285714286</v>
+        <v>3.9857142857142862</v>
       </c>
       <c r="E126">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F126">
-        <v>2.05</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127" s="2">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" s="3">
         <v>41091</v>
       </c>
       <c r="B127">
-        <v>310.47</v>
+        <v>310.47000000000003</v>
       </c>
       <c r="C127">
         <v>16257.151</v>
       </c>
       <c r="D127">
-        <v>3.642857142857143</v>
+        <v>3.6428571428571428</v>
       </c>
       <c r="E127">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F127">
         <v>1.53</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
-      <c r="A128" s="2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" s="3">
         <v>41183</v>
       </c>
       <c r="B128">
-        <v>312.97</v>
+        <v>312.97000000000003</v>
       </c>
       <c r="C128">
-        <v>16358.863</v>
+        <v>16358.862999999999</v>
       </c>
       <c r="D128">
-        <v>3.377142857142857</v>
+        <v>3.3771428571428568</v>
       </c>
       <c r="E128">
         <v>7.8</v>
@@ -2955,12 +3017,12 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
-      <c r="A129" s="2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" s="3">
         <v>41275</v>
       </c>
       <c r="B129">
-        <v>314.59</v>
+        <v>314.58999999999997</v>
       </c>
       <c r="C129">
         <v>16569.591</v>
@@ -2975,18 +3037,18 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
-      <c r="A130" s="2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" s="3">
         <v>41365</v>
       </c>
       <c r="B130">
         <v>319.5</v>
       </c>
       <c r="C130">
-        <v>16637.926</v>
+        <v>16637.925999999999</v>
       </c>
       <c r="D130">
-        <v>3.552857142857143</v>
+        <v>3.5528571428571429</v>
       </c>
       <c r="E130">
         <v>7.6</v>
@@ -2995,8 +3057,8 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
-      <c r="A131" s="2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" s="3">
         <v>41456</v>
       </c>
       <c r="B131">
@@ -3006,7 +3068,7 @@
         <v>16848.748</v>
       </c>
       <c r="D131">
-        <v>4.346666666666667</v>
+        <v>4.3466666666666667</v>
       </c>
       <c r="E131">
         <v>7.3</v>
@@ -3015,18 +3077,18 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
-      <c r="A132" s="2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" s="3">
         <v>41548</v>
       </c>
       <c r="B132">
         <v>327.2</v>
       </c>
       <c r="C132">
-        <v>17083.137</v>
+        <v>17083.136999999999</v>
       </c>
       <c r="D132">
-        <v>4.248571428571428</v>
+        <v>4.2485714285714282</v>
       </c>
       <c r="E132">
         <v>7.2</v>
@@ -3035,18 +3097,18 @@
         <v>2.62</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
-      <c r="A133" s="2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" s="3">
         <v>41640</v>
       </c>
       <c r="B133">
         <v>330.09</v>
       </c>
       <c r="C133">
-        <v>17102.932</v>
+        <v>17102.932000000001</v>
       </c>
       <c r="D133">
-        <v>4.522857142857143</v>
+        <v>4.5228571428571431</v>
       </c>
       <c r="E133">
         <v>6.6</v>
@@ -3055,8 +3117,8 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
-      <c r="A134" s="2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" s="3">
         <v>41730</v>
       </c>
       <c r="B134">
@@ -3066,7 +3128,7 @@
         <v>17425.766</v>
       </c>
       <c r="D134">
-        <v>4.407142857142857</v>
+        <v>4.4071428571428566</v>
       </c>
       <c r="E134">
         <v>6.2</v>
@@ -3075,18 +3137,18 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
-      <c r="A135" s="2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" s="3">
         <v>41821</v>
       </c>
       <c r="B135">
         <v>341.22</v>
       </c>
       <c r="C135">
-        <v>17719.836</v>
+        <v>17719.835999999999</v>
       </c>
       <c r="D135">
-        <v>4.125714285714285</v>
+        <v>4.1257142857142846</v>
       </c>
       <c r="E135">
         <v>6.2</v>
@@ -3095,35 +3157,35 @@
         <v>2.54</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
-      <c r="A136" s="2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" s="3">
         <v>41913</v>
       </c>
       <c r="B136">
         <v>344.05</v>
       </c>
       <c r="C136">
-        <v>17838.454</v>
+        <v>17838.454000000002</v>
       </c>
       <c r="D136">
-        <v>4.191428571428572</v>
+        <v>4.1914285714285722</v>
       </c>
       <c r="E136">
         <v>5.7</v>
       </c>
       <c r="F136">
-        <v>2.3</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" s="3">
         <v>42005</v>
       </c>
       <c r="B137">
         <v>347.48</v>
       </c>
       <c r="C137">
-        <v>17970.422</v>
+        <v>17970.421999999999</v>
       </c>
       <c r="D137">
         <v>3.8525</v>
@@ -3135,18 +3197,18 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
-      <c r="A138" s="2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138" s="3">
         <v>42095</v>
       </c>
       <c r="B138">
         <v>353.58</v>
       </c>
       <c r="C138">
-        <v>18221.299</v>
+        <v>18221.298999999999</v>
       </c>
       <c r="D138">
-        <v>3.698571428571429</v>
+        <v>3.6985714285714288</v>
       </c>
       <c r="E138">
         <v>5.4</v>
@@ -3155,35 +3217,35 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
-      <c r="A139" s="2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139" s="3">
         <v>42186</v>
       </c>
       <c r="B139">
         <v>359.06</v>
       </c>
       <c r="C139">
-        <v>18331.093</v>
+        <v>18331.093000000001</v>
       </c>
       <c r="D139">
-        <v>4.071428571428571</v>
+        <v>4.0714285714285712</v>
       </c>
       <c r="E139">
         <v>5.2</v>
       </c>
       <c r="F139">
-        <v>2.32</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140" s="2">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140" s="3">
         <v>42278</v>
       </c>
       <c r="B140">
         <v>362.27</v>
       </c>
       <c r="C140">
-        <v>18354.372</v>
+        <v>18354.371999999999</v>
       </c>
       <c r="D140">
         <v>3.85</v>
@@ -3192,11 +3254,11 @@
         <v>5</v>
       </c>
       <c r="F140">
-        <v>2.07</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141" s="2">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141" s="3">
         <v>42370</v>
       </c>
       <c r="B141">
@@ -3206,17 +3268,17 @@
         <v>18409.13</v>
       </c>
       <c r="D141">
-        <v>4.004285714285714</v>
+        <v>4.0042857142857136</v>
       </c>
       <c r="E141">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F141">
         <v>2.09</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
-      <c r="A142" s="2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142" s="3">
         <v>42461</v>
       </c>
       <c r="B142">
@@ -3226,7 +3288,7 @@
         <v>18640.732</v>
       </c>
       <c r="D142">
-        <v>3.692857142857143</v>
+        <v>3.6928571428571431</v>
       </c>
       <c r="E142">
         <v>5</v>
@@ -3235,15 +3297,15 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
-      <c r="A143" s="2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143" s="3">
         <v>42552</v>
       </c>
       <c r="B143">
         <v>379.48</v>
       </c>
       <c r="C143">
-        <v>18799.648</v>
+        <v>18799.648000000001</v>
       </c>
       <c r="D143">
         <v>3.47</v>
@@ -3255,28 +3317,28 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
-      <c r="A144" s="2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144" s="3">
         <v>42644</v>
       </c>
       <c r="B144">
         <v>382.96</v>
       </c>
       <c r="C144">
-        <v>18979.245</v>
+        <v>18979.244999999999</v>
       </c>
       <c r="D144">
         <v>3.42</v>
       </c>
       <c r="E144">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F144">
         <v>1.76</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
-      <c r="A145" s="2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" s="3">
         <v>42736</v>
       </c>
       <c r="B145">
@@ -3286,17 +3348,17 @@
         <v>19162.55</v>
       </c>
       <c r="D145">
-        <v>4.268571428571429</v>
+        <v>4.2685714285714287</v>
       </c>
       <c r="E145">
         <v>4.7</v>
       </c>
       <c r="F145">
-        <v>2.43</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146" s="3">
         <v>42826</v>
       </c>
       <c r="B146">
@@ -3306,24 +3368,24 @@
         <v>19359.123</v>
       </c>
       <c r="D146">
-        <v>4.128571428571428</v>
+        <v>4.1285714285714281</v>
       </c>
       <c r="E146">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F146">
-        <v>2.3</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147" s="3">
         <v>42917</v>
       </c>
       <c r="B147">
         <v>403.07</v>
       </c>
       <c r="C147">
-        <v>19588.074</v>
+        <v>19588.074000000001</v>
       </c>
       <c r="D147">
         <v>3.902857142857143</v>
@@ -3332,61 +3394,61 @@
         <v>4.3</v>
       </c>
       <c r="F147">
-        <v>2.32</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148" s="2">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148" s="3">
         <v>43009</v>
       </c>
       <c r="B148">
         <v>407.25</v>
       </c>
       <c r="C148">
-        <v>19831.829</v>
+        <v>19831.829000000002</v>
       </c>
       <c r="D148">
         <v>3.838571428571429</v>
       </c>
       <c r="E148">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F148">
         <v>2.36</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
-      <c r="A149" s="2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149" s="3">
         <v>43101</v>
       </c>
       <c r="B149">
         <v>413.14</v>
       </c>
       <c r="C149">
-        <v>20041.047</v>
+        <v>20041.046999999999</v>
       </c>
       <c r="D149">
         <v>3.967142857142858</v>
       </c>
       <c r="E149">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F149">
         <v>2.58</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
-      <c r="A150" s="2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150" s="3">
         <v>43191</v>
       </c>
       <c r="B150">
         <v>423.24</v>
       </c>
       <c r="C150">
-        <v>20411.924</v>
+        <v>20411.923999999999</v>
       </c>
       <c r="D150">
-        <v>4.422857142857143</v>
+        <v>4.4228571428571426</v>
       </c>
       <c r="E150">
         <v>3.9</v>
@@ -3395,18 +3457,18 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
-      <c r="A151" s="2">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151" s="3">
         <v>43282</v>
       </c>
       <c r="B151">
         <v>430.15</v>
       </c>
       <c r="C151">
-        <v>20658.204</v>
+        <v>20658.204000000002</v>
       </c>
       <c r="D151">
-        <v>4.537142857142856</v>
+        <v>4.5371428571428556</v>
       </c>
       <c r="E151">
         <v>3.9</v>
@@ -3415,8 +3477,8 @@
         <v>2.89</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
-      <c r="A152" s="2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152" s="3">
         <v>43374</v>
       </c>
       <c r="B152">
@@ -3426,7 +3488,7 @@
         <v>20865.14</v>
       </c>
       <c r="D152">
-        <v>4.714285714285714</v>
+        <v>4.7142857142857144</v>
       </c>
       <c r="E152">
         <v>3.8</v>
